--- a/SES32_MSM/src/main/webapp/resources/file/accbook_testfile.xlsx
+++ b/SES32_MSM/src/main/webapp/resources/file/accbook_testfile.xlsx
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>건강진단</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -305,6 +301,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>적금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기적금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">결제수단
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지출
+현금,카드,기타
+수입 : - ,기타</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -325,122 +356,71 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-수입:IN,
+수입:INC,
 지출:OUT
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정기적금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정지출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">결제수단
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>지출
-현금,카드,기타
-수입 : - ,기타</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월24일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월25일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월26일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월27일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월28일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월29일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월30일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월11일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월12일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월13일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월14일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월15일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월16일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월17일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월18일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월19일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월20일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월21일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월22일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년03월23일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2017년04월24일</t>
+  </si>
+  <si>
+    <t>2017년04월25일</t>
+  </si>
+  <si>
+    <t>2017년04월26일</t>
+  </si>
+  <si>
+    <t>2017년04월27일</t>
+  </si>
+  <si>
+    <t>2017년04월28일</t>
+  </si>
+  <si>
+    <t>2017년04월29일</t>
+  </si>
+  <si>
+    <t>2017년04월30일</t>
+  </si>
+  <si>
+    <t>2017년04월19일</t>
+  </si>
+  <si>
+    <t>2017년04월20일</t>
+  </si>
+  <si>
+    <t>2017년04월21일</t>
+  </si>
+  <si>
+    <t>2017년04월22일</t>
+  </si>
+  <si>
+    <t>2017년04월23일</t>
+  </si>
+  <si>
+    <t>2017년04월01일</t>
+  </si>
+  <si>
+    <t>2017년04월02일</t>
+  </si>
+  <si>
+    <t>2017년04월03일</t>
+  </si>
+  <si>
+    <t>2017년04월04일</t>
+  </si>
+  <si>
+    <t>2017년04월05일</t>
+  </si>
+  <si>
+    <t>2017년04월06일</t>
+  </si>
+  <si>
+    <t>2017년04월07일</t>
+  </si>
+  <si>
+    <t>2017년04월08일</t>
   </si>
 </sst>
 </file>
@@ -833,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -848,25 +828,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="317.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -880,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -903,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -926,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -935,7 +915,7 @@
         <v>100000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -949,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
@@ -972,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
@@ -981,7 +961,7 @@
         <v>40000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -995,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
@@ -1004,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1018,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
@@ -1027,12 +1007,12 @@
         <v>500000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -1041,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -1050,12 +1030,12 @@
         <v>200000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -1064,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -1073,12 +1053,12 @@
         <v>300000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -1087,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -1096,12 +1076,12 @@
         <v>50000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -1110,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
@@ -1119,12 +1099,12 @@
         <v>40000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -1133,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
@@ -1142,12 +1122,12 @@
         <v>30000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -1156,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
@@ -1165,12 +1145,12 @@
         <v>50000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -1179,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
@@ -1193,7 +1173,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -1202,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
@@ -1216,7 +1196,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -1225,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>2</v>
@@ -1239,16 +1219,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
@@ -1257,12 +1237,12 @@
         <v>1000000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -1271,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
@@ -1285,7 +1265,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -1294,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>2</v>
@@ -1308,25 +1288,25 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2">
         <v>3000000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1334,22 +1314,22 @@
         <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F22" s="2">
         <v>400000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1357,22 +1337,22 @@
         <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2">
         <v>2000000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1380,22 +1360,22 @@
         <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F24" s="2">
         <v>30000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1403,22 +1383,22 @@
         <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="2">
         <v>30000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7">
